--- a/GeneticProgrammingPortfolio/docs-img/2016-03-20/23-07-26/sample.xlsx
+++ b/GeneticProgrammingPortfolio/docs-img/2016-03-20/23-07-26/sample.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>DJIA</t>
-  </si>
-  <si>
-    <t>BEST_TRAIN</t>
-  </si>
-  <si>
-    <t>BEST_TEST</t>
   </si>
   <si>
     <t>ENS_AVG</t>
@@ -371,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G775"/>
+  <dimension ref="A1:E775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,7 +373,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,3881 +389,4811 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="n">
         <v>0.551402679</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" t="n">
         <v>0.554764248</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" t="n">
         <v>0.561656527</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" t="n">
         <v>0.562910209</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:5">
       <c r="A6" t="n">
         <v>0.569587449</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:5">
       <c r="A7" t="n">
         <v>0.569333313</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:5">
       <c r="A8" t="n">
         <v>0.5629816050000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:5">
       <c r="A9" t="n">
         <v>0.559946419</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:5">
       <c r="A10" t="n">
         <v>0.568478259</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:5">
       <c r="A11" t="n">
         <v>0.57830118</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:5">
       <c r="A12" t="n">
         <v>0.569887483</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:5">
       <c r="A13" t="n">
         <v>0.574965959</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:5">
       <c r="A14" t="n">
         <v>0.564691713</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:5">
       <c r="A15" t="n">
         <v>0.56029235</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:5">
       <c r="A16" t="n">
         <v>0.558210812</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:5">
       <c r="A17" t="n">
         <v>0.556657096</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:5">
       <c r="A18" t="n">
         <v>0.543210821</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19" t="n">
         <v>0.5573226100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:5">
       <c r="A20" t="n">
         <v>0.5835360469999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21" t="n">
         <v>0.5817349939999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:5">
       <c r="A22" t="n">
         <v>0.585462044</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:5">
       <c r="A23" t="n">
         <v>0.581134077</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24" t="n">
         <v>0.5764219310000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25" t="n">
         <v>0.581662748</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:5">
       <c r="A26" t="n">
         <v>0.588522729</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27" t="n">
         <v>0.5899855000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:5">
       <c r="A28" t="n">
         <v>0.591591063</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:5">
       <c r="A29" t="n">
         <v>0.593934387</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="A30" t="n">
         <v>0.591923395</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:5">
       <c r="A31" t="n">
         <v>0.5991301570000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:5">
       <c r="A32" t="n">
         <v>0.603692711</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:5">
       <c r="A33" t="n">
         <v>0.609005775</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:5">
       <c r="A34" t="n">
         <v>0.614710667</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:5">
       <c r="A35" t="n">
         <v>0.618620456</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:5">
       <c r="A36" t="n">
         <v>0.624625383</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:5">
       <c r="A37" t="n">
         <v>0.623431197</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:5">
       <c r="A38" t="n">
         <v>0.629592515</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:5">
       <c r="A39" t="n">
         <v>0.625852717</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:5">
       <c r="A40" t="n">
         <v>0.621616545</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:5">
       <c r="A41" t="n">
         <v>0.634298711</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:5">
       <c r="A42" t="n">
         <v>0.623273956</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:5">
       <c r="A43" t="n">
         <v>0.631707201</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:5">
       <c r="A44" t="n">
         <v>0.632320868</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:5">
       <c r="A45" t="n">
         <v>0.628711112</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:5">
       <c r="A46" t="n">
         <v>0.632869088</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:5">
       <c r="A47" t="n">
         <v>0.631022138</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:5">
       <c r="A48" t="n">
         <v>0.6350560200000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:5">
       <c r="A49" t="n">
         <v>0.632014034</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:5">
       <c r="A50" t="n">
         <v>0.631204878</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:5">
       <c r="A51" t="n">
         <v>0.63191629</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:5">
       <c r="A52" t="n">
         <v>0.636498393</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:5">
       <c r="A53" t="n">
         <v>0.627307838</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:5">
       <c r="A54" t="n">
         <v>0.623319853</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:5">
       <c r="A55" t="n">
         <v>0.633515054</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:5">
       <c r="A56" t="n">
         <v>0.615122045</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:5">
       <c r="A57" t="n">
         <v>0.624978114</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:5">
       <c r="A58" t="n">
         <v>0.639872711</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:5">
       <c r="A59" t="n">
         <v>0.638098007</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:5">
       <c r="A60" t="n">
         <v>0.6410872949999999</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:5">
       <c r="A61" t="n">
         <v>0.644330721</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:5">
       <c r="A62" t="n">
         <v>0.655035894</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:5">
       <c r="A63" t="n">
         <v>0.658645649</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:5">
       <c r="A64" t="n">
         <v>0.661471747</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:5">
       <c r="A65" t="n">
         <v>0.667215737</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:5">
       <c r="A66" t="n">
         <v>0.671484207</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:5">
       <c r="A67" t="n">
         <v>0.6717196439999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:5">
       <c r="A68" t="n">
         <v>0.67216332</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:5">
       <c r="A69" t="n">
         <v>0.679291036</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:5">
       <c r="A70" t="n">
         <v>0.6771636009999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:5">
       <c r="A71" t="n">
         <v>0.671889635</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:5">
       <c r="A72" t="n">
         <v>0.672209218</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:5">
       <c r="A73" t="n">
         <v>0.676961312</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:5">
       <c r="A74" t="n">
         <v>0.669291325</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:5">
       <c r="A75" t="n">
         <v>0.67698681</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:5">
       <c r="A76" t="n">
         <v>0.671523305</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:5">
       <c r="A77" t="n">
         <v>0.681034292</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:5">
       <c r="A78" t="n">
         <v>0.678187796</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:5">
       <c r="A79" t="n">
         <v>0.682639856</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:5">
       <c r="A80" t="n">
         <v>0.682156232</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:5">
       <c r="A81" t="n">
         <v>0.689734423</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:5">
       <c r="A82" t="n">
         <v>0.680243835</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:5">
       <c r="A83" t="n">
         <v>0.6849831790000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:5">
       <c r="A84" t="n">
         <v>0.6815102669999999</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:5">
       <c r="A85" t="n">
         <v>0.685609596</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:5">
       <c r="A86" t="n">
         <v>0.690707621</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:5">
       <c r="A87" t="n">
         <v>0.701653331</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:5">
       <c r="A88" t="n">
         <v>0.706999543</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:5">
       <c r="A89" t="n">
         <v>0.706992743</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:5">
       <c r="A90" t="n">
         <v>0.684395861</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:5">
       <c r="A91" t="n">
         <v>0.697789439</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:5">
       <c r="A92" t="n">
         <v>0.686043922</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:5">
       <c r="A93" t="n">
         <v>0.679121045</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:5">
       <c r="A94" t="n">
         <v>0.680002448</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:5">
       <c r="A95" t="n">
         <v>0.681673458</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:5">
       <c r="A96" t="n">
         <v>0.69461741</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:5">
       <c r="A97" t="n">
         <v>0.690949008</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:5">
       <c r="A98" t="n">
         <v>0.693031396</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:5">
       <c r="A99" t="n">
         <v>0.694030092</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:5">
       <c r="A100" t="n">
         <v>0.703056605</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:5">
       <c r="A101" t="n">
         <v>0.704845759</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:5">
       <c r="A102" t="n">
         <v>0.693044145</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:5">
       <c r="A103" t="n">
         <v>0.704147096</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:5">
       <c r="A104" t="n">
         <v>0.716248744</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:5">
       <c r="A105" t="n">
         <v>0.715817817</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:5">
       <c r="A106" t="n">
         <v>0.723238767</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:5">
       <c r="A107" t="n">
         <v>0.727396743</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:5">
       <c r="A108" t="n">
         <v>0.725484346</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:5">
       <c r="A109" t="n">
         <v>0.728533132</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:5">
       <c r="A110" t="n">
         <v>0.726254405</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:5">
       <c r="A111" t="n">
         <v>0.736757289</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:5">
       <c r="A112" t="n">
         <v>0.7418944119999999</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:5">
       <c r="A113" t="n">
         <v>0.738284656</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:5">
       <c r="A114" t="n">
         <v>0.748584401</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:5">
       <c r="A115" t="n">
         <v>0.746959289</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:5">
       <c r="A116" t="n">
         <v>0.751404549</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:5">
       <c r="A117" t="n">
         <v>0.744570068</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:5">
       <c r="A118" t="n">
         <v>0.743493176</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:5">
       <c r="A119" t="n">
         <v>0.744224136</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:5">
       <c r="A120" t="n">
         <v>0.753258299</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:5">
       <c r="A121" t="n">
         <v>0.744198638</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:5">
       <c r="A122" t="n">
         <v>0.746045588</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:5">
       <c r="A123" t="n">
         <v>0.728284945</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:5">
       <c r="A124" t="n">
         <v>0.740053411</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:5">
       <c r="A125" t="n">
         <v>0.733552112</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:5">
       <c r="A126" t="n">
         <v>0.715112355</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:5">
       <c r="A127" t="n">
         <v>0.721914539</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:5">
       <c r="A128" t="n">
         <v>0.739551088</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:5">
       <c r="A129" t="n">
         <v>0.738741082</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:5">
       <c r="A130" t="n">
         <v>0.728833166</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:5">
       <c r="A131" t="n">
         <v>0.718056597</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:5">
       <c r="A132" t="n">
         <v>0.733428018</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:5">
       <c r="A133" t="n">
         <v>0.724427003</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:5">
       <c r="A134" t="n">
         <v>0.733748451</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:5">
       <c r="A135" t="n">
         <v>0.745510117</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:5">
       <c r="A136" t="n">
         <v>0.727997661</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:5">
       <c r="A137" t="n">
         <v>0.697920332</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:5">
       <c r="A138" t="n">
         <v>0.701411944</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:5">
       <c r="A139" t="n">
         <v>0.689526185</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:5">
       <c r="A140" t="n">
         <v>0.698089473</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:5">
       <c r="A141" t="n">
         <v>0.710824337</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:5">
       <c r="A142" t="n">
         <v>0.720543563</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:5">
       <c r="A143" t="n">
         <v>0.710778439</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:5">
       <c r="A144" t="n">
         <v>0.7163337400000001</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:5">
       <c r="A145" t="n">
         <v>0.712717185</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:5">
       <c r="A146" t="n">
         <v>0.7174888270000001</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:5">
       <c r="A147" t="n">
         <v>0.730007803</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:5">
       <c r="A148" t="n">
         <v>0.737559646</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:5">
       <c r="A149" t="n">
         <v>0.743989549</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:5">
       <c r="A150" t="n">
         <v>0.743251789</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:5">
       <c r="A151" t="n">
         <v>0.7576381129999999</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:5">
       <c r="A152" t="n">
         <v>0.757925398</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:5">
       <c r="A153" t="n">
         <v>0.759621906</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:5">
       <c r="A154" t="n">
         <v>0.756867205</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:5">
       <c r="A155" t="n">
         <v>0.758454069</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:5">
       <c r="A156" t="n">
         <v>0.765085412</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:5">
       <c r="A157" t="n">
         <v>0.764677434</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:5">
       <c r="A158" t="n">
         <v>0.764831276</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:5">
       <c r="A159" t="n">
         <v>0.766717324</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:5">
       <c r="A160" t="n">
         <v>0.764549941</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:5">
       <c r="A161" t="n">
         <v>0.76568633</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:5">
       <c r="A162" t="n">
         <v>0.765960015</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:5">
       <c r="A163" t="n">
         <v>0.762827084</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:5">
       <c r="A164" t="n">
         <v>0.7627097900000001</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:5">
       <c r="A165" t="n">
         <v>0.760920636</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:5">
       <c r="A166" t="n">
         <v>0.771840848</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:5">
       <c r="A167" t="n">
         <v>0.774419609</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:5">
       <c r="A168" t="n">
         <v>0.770490271</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:5">
       <c r="A169" t="n">
         <v>0.7625525480000001</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:5">
       <c r="A170" t="n">
         <v>0.758466819</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:5">
       <c r="A171" t="n">
         <v>0.7608169420000001</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:5">
       <c r="A172" t="n">
         <v>0.754628426</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:5">
       <c r="A173" t="n">
         <v>0.754132902</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:5">
       <c r="A174" t="n">
         <v>0.756795809</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:5">
       <c r="A175" t="n">
         <v>0.747161578</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:5">
       <c r="A176" t="n">
         <v>0.727997661</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:5">
       <c r="A177" t="n">
         <v>0.725386602</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:5">
       <c r="A178" t="n">
         <v>0.7193748760000001</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:5">
       <c r="A179" t="n">
         <v>0.718716161</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:5">
       <c r="A180" t="n">
         <v>0.709754244</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:5">
       <c r="A181" t="n">
         <v>0.715380091</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:5">
       <c r="A182" t="n">
         <v>0.719355327</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:5">
       <c r="A183" t="n">
         <v>0.71391137</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:5">
       <c r="A184" t="n">
         <v>0.699434101</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:5">
       <c r="A185" t="n">
         <v>0.703546179</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:5">
       <c r="A186" t="n">
         <v>0.7049435040000001</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:5">
       <c r="A187" t="n">
         <v>0.702339244</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:5">
       <c r="A188" t="n">
         <v>0.704349386</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:5">
       <c r="A189" t="n">
         <v>0.712586292</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:5">
       <c r="A190" t="n">
         <v>0.713148111</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:5">
       <c r="A191" t="n">
         <v>0.71187488</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:5">
       <c r="A192" t="n">
         <v>0.723826936</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:5">
       <c r="A193" t="n">
         <v>0.73470125</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:5">
       <c r="A194" t="n">
         <v>0.7462215290000001</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:5">
       <c r="A195" t="n">
         <v>0.744015048</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:5">
       <c r="A196" t="n">
         <v>0.750425402</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:5">
       <c r="A197" t="n">
         <v>0.760516058</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:5">
       <c r="A198" t="n">
         <v>0.763486648</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:5">
       <c r="A199" t="n">
         <v>0.775998824</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:5">
       <c r="A200" t="n">
         <v>0.772565859</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:5">
       <c r="A201" t="n">
         <v>0.756802608</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:5">
       <c r="A202" t="n">
         <v>0.752577486</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:5">
       <c r="A203" t="n">
         <v>0.7469006419999999</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:5">
       <c r="A204" t="n">
         <v>0.7416878730000001</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:5">
       <c r="A205" t="n">
         <v>0.746366021</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:5">
       <c r="A206" t="n">
         <v>0.740411242</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:5">
       <c r="A207" t="n">
         <v>0.729483381</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:5">
       <c r="A208" t="n">
         <v>0.734755647</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:5">
       <c r="A209" t="n">
         <v>0.729778315</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:5">
       <c r="A210" t="n">
         <v>0.7181628410000001</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:5">
       <c r="A211" t="n">
         <v>0.724630992</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:5">
       <c r="A212" t="n">
         <v>0.713042717</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:5">
       <c r="A213" t="n">
         <v>0.699468099</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:5">
       <c r="A214" t="n">
         <v>0.701716227</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:5">
       <c r="A215" t="n">
         <v>0.7291773969999999</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:5">
       <c r="A216" t="n">
         <v>0.738615289</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:5">
       <c r="A217" t="n">
         <v>0.7440677449999999</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:5">
       <c r="A218" t="n">
         <v>0.732742105</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:5">
       <c r="A219" t="n">
         <v>0.750235862</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:5">
       <c r="A220" t="n">
         <v>0.750050572</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:5">
       <c r="A221" t="n">
         <v>0.752430444</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:5">
       <c r="A222" t="n">
         <v>0.751797228</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:5">
       <c r="A223" t="n">
         <v>0.758210982</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:5">
       <c r="A224" t="n">
         <v>0.7535931809999999</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:5">
       <c r="A225" t="n">
         <v>0.761742542</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:5">
       <c r="A226" t="n">
         <v>0.766933212</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:5">
       <c r="A227" t="n">
         <v>0.766818468</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:5">
       <c r="A228" t="n">
         <v>0.776288658</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:5">
       <c r="A229" t="n">
         <v>0.77105379</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:5">
       <c r="A230" t="n">
         <v>0.764848275</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:5">
       <c r="A231" t="n">
         <v>0.770780955</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:5">
       <c r="A232" t="n">
         <v>0.772784297</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:5">
       <c r="A233" t="n">
         <v>0.7710078930000001</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:5">
       <c r="A234" t="n">
         <v>0.781943403</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:5">
       <c r="A235" t="n">
         <v>0.768947604</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:5">
       <c r="A236" t="n">
         <v>0.783209835</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:5">
       <c r="A237" t="n">
         <v>0.785021937</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:5">
       <c r="A238" t="n">
         <v>0.782265536</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:5">
       <c r="A239" t="n">
         <v>0.788296811</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:5">
       <c r="A240" t="n">
         <v>0.792936711</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:5">
       <c r="A241" t="n">
         <v>0.800202119</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:5">
       <c r="A242" t="n">
         <v>0.801419254</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:5">
       <c r="A243" t="n">
         <v>0.800655145</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:5">
       <c r="A244" t="n">
         <v>0.795027598</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:5">
       <c r="A245" t="n">
         <v>0.804306548</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:5">
       <c r="A246" t="n">
         <v>0.8089625969999999</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:5">
       <c r="A247" t="n">
         <v>0.809623011</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:5">
       <c r="A248" t="n">
         <v>0.8096451099999999</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:5">
       <c r="A249" t="n">
         <v>0.811730048</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:5">
       <c r="A250" t="n">
         <v>0.810801898</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:5">
       <c r="A251" t="n">
         <v>0.8042028530000001</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:5">
       <c r="A252" t="n">
         <v>0.796200535</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:5">
       <c r="A253" t="n">
         <v>0.7940883989999999</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:5">
       <c r="A254" t="n">
         <v>0.788286611</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:5">
       <c r="A255" t="n">
         <v>0.805174351</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:5">
       <c r="A256" t="n">
         <v>0.805627377</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:5">
       <c r="A257" t="n">
         <v>0.801173617</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:5">
       <c r="A258" t="n">
         <v>0.79015821</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:5">
       <c r="A259" t="n">
         <v>0.781310187</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:5">
       <c r="A260" t="n">
         <v>0.7826641640000001</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:5">
       <c r="A261" t="n">
         <v>0.793646422</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:5">
       <c r="A262" t="n">
         <v>0.7928551150000001</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:5">
       <c r="A263" t="n">
         <v>0.817734124</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:5">
       <c r="A264" t="n">
         <v>0.818678423</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:5">
       <c r="A265" t="n">
         <v>0.822253331</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:5">
       <c r="A266" t="n">
         <v>0.828497944</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:5">
       <c r="A267" t="n">
         <v>0.833847556</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:5">
       <c r="A268" t="n">
         <v>0.844245045</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:5">
       <c r="A269" t="n">
         <v>0.844120102</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:5">
       <c r="A270" t="n">
         <v>0.846319783</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:5">
       <c r="A271" t="n">
         <v>0.852470902</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:5">
       <c r="A272" t="n">
         <v>0.840970172</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:5">
       <c r="A273" t="n">
         <v>0.843404441</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:5">
       <c r="A274" t="n">
         <v>0.839588996</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:5">
       <c r="A275" t="n">
         <v>0.848584911</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:5">
       <c r="A276" t="n">
         <v>0.842788224</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:5">
       <c r="A277" t="n">
         <v>0.8412600059999999</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:5">
       <c r="A278" t="n">
         <v>0.840604691</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:5">
       <c r="A279" t="n">
         <v>0.825381162</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:5">
       <c r="A280" t="n">
         <v>0.835233831</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:5">
       <c r="A281" t="n">
         <v>0.844420136</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:5">
       <c r="A282" t="n">
         <v>0.8389013829999999</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:5">
       <c r="A283" t="n">
         <v>0.842432943</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:5">
       <c r="A284" t="n">
         <v>0.838682945</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:5">
       <c r="A285" t="n">
         <v>0.835189633</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:5">
       <c r="A286" t="n">
         <v>0.8202312899999999</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:5">
       <c r="A287" t="n">
         <v>0.793182347</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:5">
       <c r="A288" t="n">
         <v>0.7896779860000001</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:5">
       <c r="A289" t="n">
         <v>0.797385371</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:5">
       <c r="A290" t="n">
         <v>0.78125579</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:5">
       <c r="A291" t="n">
         <v>0.790589987</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:5">
       <c r="A292" t="n">
         <v>0.777861073</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:5">
       <c r="A293" t="n">
         <v>0.750148317</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:5">
       <c r="A294" t="n">
         <v>0.756305385</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:5">
       <c r="A295" t="n">
         <v>0.755879558</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:5">
       <c r="A296" t="n">
         <v>0.7718841950000001</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:5">
       <c r="A297" t="n">
         <v>0.785955187</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:5">
       <c r="A298" t="n">
         <v>0.786610502</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:5">
       <c r="A299" t="n">
         <v>0.803012918</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:5">
       <c r="A300" t="n">
         <v>0.800392509</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:5">
       <c r="A301" t="n">
         <v>0.805802467</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:5">
       <c r="A302" t="n">
         <v>0.816579886</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:5">
       <c r="A303" t="n">
         <v>0.814540846</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:5">
       <c r="A304" t="n">
         <v>0.806904858</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:5">
       <c r="A305" t="n">
         <v>0.814781383</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:5">
       <c r="A306" t="n">
         <v>0.81223747</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:5">
       <c r="A307" t="n">
         <v>0.821063395</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:5">
       <c r="A308" t="n">
         <v>0.818727721</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:5">
       <c r="A309" t="n">
         <v>0.820321385</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:5">
       <c r="A310" t="n">
         <v>0.826631445</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:5">
       <c r="A311" t="n">
         <v>0.83080132</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:5">
       <c r="A312" t="n">
         <v>0.817739224</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:5">
       <c r="A313" t="n">
         <v>0.83710543</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:5">
       <c r="A314" t="n">
         <v>0.834071094</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:5">
       <c r="A315" t="n">
         <v>0.8393161609999999</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:5">
       <c r="A316" t="n">
         <v>0.84193657</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:5">
       <c r="A317" t="n">
         <v>0.839043326</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:5">
       <c r="A318" t="n">
         <v>0.833312084</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:5">
       <c r="A319" t="n">
         <v>0.832362686</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:5">
       <c r="A320" t="n">
         <v>0.812712595</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:5">
       <c r="A321" t="n">
         <v>0.809039093</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:5">
       <c r="A322" t="n">
         <v>0.8244700109999999</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:5">
       <c r="A323" t="n">
         <v>0.832032053</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:5">
       <c r="A324" t="n">
         <v>0.8223408760000001</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:5">
       <c r="A325" t="n">
         <v>0.831595177</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:5">
       <c r="A326" t="n">
         <v>0.829191507</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:5">
       <c r="A327" t="n">
         <v>0.8269748260000001</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:5">
       <c r="A328" t="n">
         <v>0.834725558</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:5">
       <c r="A329" t="n">
         <v>0.8263203609999999</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:5">
       <c r="A330" t="n">
         <v>0.825915783</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:5">
       <c r="A331" t="n">
         <v>0.830916064</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:5">
       <c r="A332" t="n">
         <v>0.842356447</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:5">
       <c r="A333" t="n">
         <v>0.848726854</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:5">
       <c r="A334" t="n">
         <v>0.852159819</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:5">
       <c r="A335" t="n">
         <v>0.852121571</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:5">
       <c r="A336" t="n">
         <v>0.8392243660000001</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:5">
       <c r="A337" t="n">
         <v>0.8243552669999999</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:5">
       <c r="A338" t="n">
         <v>0.82522817</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:5">
       <c r="A339" t="n">
         <v>0.840615741</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:5">
       <c r="A340" t="n">
         <v>0.817925364</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:5">
       <c r="A341" t="n">
         <v>0.807887405</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:5">
       <c r="A342" t="n">
         <v>0.81818205</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:5">
       <c r="A343" t="n">
         <v>0.825773841</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:5">
       <c r="A344" t="n">
         <v>0.839567747</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:5">
       <c r="A345" t="n">
         <v>0.838181472</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:5">
       <c r="A346" t="n">
         <v>0.841641636</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:5">
       <c r="A347" t="n">
         <v>0.847176537</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:5">
       <c r="A348" t="n">
         <v>0.846095395</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:5">
       <c r="A349" t="n">
         <v>0.846095395</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:5">
       <c r="A350" t="n">
         <v>0.83506724</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:5">
       <c r="A351" t="n">
         <v>0.841598288</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:5">
       <c r="A352" t="n">
         <v>0.848961441</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:5">
       <c r="A353" t="n">
         <v>0.852826183</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:5">
       <c r="A354" t="n">
         <v>0.850958833</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:5">
       <c r="A355" t="n">
         <v>0.846728611</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:5">
       <c r="A356" t="n">
         <v>0.848551763</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:5">
       <c r="A357" t="n">
         <v>0.837542306</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:5">
       <c r="A358" t="n">
         <v>0.8475309680000001</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:5">
       <c r="A359" t="n">
         <v>0.85028737</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:5">
       <c r="A360" t="n">
         <v>0.853265609</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:5">
       <c r="A361" t="n">
         <v>0.862569208</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:5">
       <c r="A362" t="n">
         <v>0.864266566</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:5">
       <c r="A363" t="n">
         <v>0.8556420810000001</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:5">
       <c r="A364" t="n">
         <v>0.841434247</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:5">
       <c r="A365" t="n">
         <v>0.8446028759999999</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:5">
       <c r="A366" t="n">
         <v>0.8469631990000001</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:5">
       <c r="A367" t="n">
         <v>0.835272079</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:5">
       <c r="A368" t="n">
         <v>0.848765102</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:5">
       <c r="A369" t="n">
         <v>0.849616756</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:5">
       <c r="A370" t="n">
         <v>0.854987616</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:5">
       <c r="A371" t="n">
         <v>0.860871849</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:5">
       <c r="A372" t="n">
         <v>0.857274843</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:5">
       <c r="A373" t="n">
         <v>0.862847143</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:5">
       <c r="A374" t="n">
         <v>0.863417462</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:5">
       <c r="A375" t="n">
         <v>0.866662587</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:5">
       <c r="A376" t="n">
         <v>0.864853034</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:5">
       <c r="A377" t="n">
         <v>0.866144115</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:5">
       <c r="A378" t="n">
         <v>0.874522963</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:5">
       <c r="A379" t="n">
         <v>0.880644333</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:5">
       <c r="A380" t="n">
         <v>0.883616623</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:5">
       <c r="A381" t="n">
         <v>0.88385631</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:5">
       <c r="A382" t="n">
         <v>0.875183378</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:5">
       <c r="A383" t="n">
         <v>0.86586023</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:5">
       <c r="A384" t="n">
         <v>0.866245259</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:5">
       <c r="A385" t="n">
         <v>0.869839716</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:5">
       <c r="A386" t="n">
         <v>0.87217539</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:5">
       <c r="A387" t="n">
         <v>0.88051599</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:5">
       <c r="A388" t="n">
         <v>0.881777322</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:5">
       <c r="A389" t="n">
         <v>0.883954905</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:5">
       <c r="A390" t="n">
         <v>0.8831202500000001</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:5">
       <c r="A391" t="n">
         <v>0.872994746</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:5">
       <c r="A392" t="n">
         <v>0.877191819</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:5">
       <c r="A393" t="n">
         <v>0.875374617</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:5">
       <c r="A394" t="n">
         <v>0.875126431</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:5">
       <c r="A395" t="n">
         <v>0.873714657</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:5">
       <c r="A396" t="n">
         <v>0.884719014</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:5">
       <c r="A397" t="n">
         <v>0.886433371</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:5">
       <c r="A398" t="n">
         <v>0.89425465</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:5">
       <c r="A399" t="n">
         <v>0.890510601</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:5">
       <c r="A400" t="n">
         <v>0.88051599</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:5">
       <c r="A401" t="n">
         <v>0.887229778</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:5">
       <c r="A402" t="n">
         <v>0.8812342010000001</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:5">
       <c r="A403" t="n">
         <v>0.883634472</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:5">
       <c r="A404" t="n">
         <v>0.893163308</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:5">
       <c r="A405" t="n">
         <v>0.893610384</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:5">
       <c r="A406" t="n">
         <v>0.900199229</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:5">
       <c r="A407" t="n">
         <v>0.886481819</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:5">
       <c r="A408" t="n">
         <v>0.896031904</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:5">
       <c r="A409" t="n">
         <v>0.892849675</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:5">
       <c r="A410" t="n">
         <v>0.898103242</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:5">
       <c r="A411" t="n">
         <v>0.895816016</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:5">
       <c r="A412" t="n">
         <v>0.895575478</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:5">
       <c r="A413" t="n">
         <v>0.883974454</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:5">
       <c r="A414" t="n">
         <v>0.886973092</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:5">
       <c r="A415" t="n">
         <v>0.880982615</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:5">
       <c r="A416" t="n">
         <v>0.87828401</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:5">
       <c r="A417" t="n">
         <v>0.851335363</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:5">
       <c r="A418" t="n">
         <v>0.8469394</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:5">
       <c r="A419" t="n">
         <v>0.851843636</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:5">
       <c r="A420" t="n">
         <v>0.839960426</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:5">
       <c r="A421" t="n">
         <v>0.841139313</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:5">
       <c r="A422" t="n">
         <v>0.834758707</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:5">
       <c r="A423" t="n">
         <v>0.850538956</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:5">
       <c r="A424" t="n">
         <v>0.851903132</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:5">
       <c r="A425" t="n">
         <v>0.851100776</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:5">
       <c r="A426" t="n">
         <v>0.858857458</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:5">
       <c r="A427" t="n">
         <v>0.864108475</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:5">
       <c r="A428" t="n">
         <v>0.8598017570000001</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:5">
       <c r="A429" t="n">
         <v>0.874746501</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:5">
       <c r="A430" t="n">
         <v>0.881618381</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:5">
       <c r="A431" t="n">
         <v>0.886679008</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:5">
       <c r="A432" t="n">
         <v>0.891809331</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:5">
       <c r="A433" t="n">
         <v>0.888556557</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:5">
       <c r="A434" t="n">
         <v>0.89498646</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:5">
       <c r="A435" t="n">
         <v>0.8975218740000001</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:5">
       <c r="A436" t="n">
         <v>0.898823153</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:5">
       <c r="A437" t="n">
         <v>0.895215948</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:5">
       <c r="A438" t="n">
         <v>0.896820661</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:5">
       <c r="A439" t="n">
         <v>0.894195153</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:5">
       <c r="A440" t="n">
         <v>0.895106304</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:5">
       <c r="A441" t="n">
         <v>0.894366844</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:5">
       <c r="A442" t="n">
         <v>0.899052641</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:5">
       <c r="A443" t="n">
         <v>0.897923052</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:5">
       <c r="A444" t="n">
         <v>0.889631749</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:5">
       <c r="A445" t="n">
         <v>0.894292898</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:5">
       <c r="A446" t="n">
         <v>0.892617638</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:5">
       <c r="A447" t="n">
         <v>0.88739127</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:5">
       <c r="A448" t="n">
         <v>0.89109962</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:5">
       <c r="A449" t="n">
         <v>0.899669708</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:5">
       <c r="A450" t="n">
         <v>0.901784394</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:5">
       <c r="A451" t="n">
         <v>0.911060794</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:5">
       <c r="A452" t="n">
         <v>0.912229481</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:5">
       <c r="A453" t="n">
         <v>0.903129871</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:5">
       <c r="A454" t="n">
         <v>0.893201556</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:5">
       <c r="A455" t="n">
         <v>0.906307</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:5">
       <c r="A456" t="n">
         <v>0.883846111</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:5">
       <c r="A457" t="n">
         <v>0.898070094</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:5">
       <c r="A458" t="n">
         <v>0.894506236</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:5">
       <c r="A459" t="n">
         <v>0.8920991660000001</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:5">
       <c r="A460" t="n">
         <v>0.871854107</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:5">
       <c r="A461" t="n">
         <v>0.8715430240000001</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:5">
       <c r="A462" t="n">
         <v>0.889276468</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:5">
       <c r="A463" t="n">
         <v>0.887765249</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:5">
       <c r="A464" t="n">
         <v>0.864602298</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:5">
       <c r="A465" t="n">
         <v>0.887961589</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:5">
       <c r="A466" t="n">
         <v>0.859490673</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:5">
       <c r="A467" t="n">
         <v>0.849703451</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:5">
       <c r="A468" t="n">
         <v>0.830746923</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:5">
       <c r="A469" t="n">
         <v>0.83024715</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:5">
       <c r="A470" t="n">
         <v>0.815504694</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:5">
       <c r="A471" t="n">
         <v>0.813422307</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:5">
       <c r="A472" t="n">
         <v>0.835790551</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:5">
       <c r="A473" t="n">
         <v>0.837427563</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:5">
       <c r="A474" t="n">
         <v>0.855713477</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:5">
       <c r="A475" t="n">
         <v>0.8426675300000001</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:5">
       <c r="A476" t="n">
         <v>0.861075838</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:5">
       <c r="A477" t="n">
         <v>0.871913604</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:5">
       <c r="A478" t="n">
         <v>0.8729785960000001</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:5">
       <c r="A479" t="n">
         <v>0.888941586</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:5">
       <c r="A480" t="n">
         <v>0.88626933</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:5">
       <c r="A481" t="n">
         <v>0.905062667</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:5">
       <c r="A482" t="n">
         <v>0.921645273</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:5">
       <c r="A483" t="n">
         <v>0.919581585</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:5">
       <c r="A484" t="n">
         <v>0.921077504</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:5">
       <c r="A485" t="n">
         <v>0.929635693</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:5">
       <c r="A486" t="n">
         <v>0.935580272</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:5">
       <c r="A487" t="n">
         <v>0.937234283</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:5">
       <c r="A488" t="n">
         <v>0.940617951</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:5">
       <c r="A489" t="n">
         <v>0.940716545</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:5">
       <c r="A490" t="n">
         <v>0.940487058</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:5">
       <c r="A491" t="n">
         <v>0.943937022</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:5">
       <c r="A492" t="n">
         <v>0.942402854</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:5">
       <c r="A493" t="n">
         <v>0.943508645</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:5">
       <c r="A494" t="n">
         <v>0.946914411</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:5">
       <c r="A495" t="n">
         <v>0.946736771</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:5">
       <c r="A496" t="n">
         <v>0.949564568</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:5">
       <c r="A497" t="n">
         <v>0.9573042510000001</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:5">
       <c r="A498" t="n">
         <v>0.957970615</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:5">
       <c r="A499" t="n">
         <v>0.9577190290000001</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:5">
       <c r="A500" t="n">
         <v>0.95880782</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:5">
       <c r="A501" t="n">
         <v>0.958849468</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:5">
       <c r="A502" t="n">
         <v>0.954477304</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:5">
       <c r="A503" t="n">
         <v>0.963210583</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:5">
       <c r="A504" t="n">
         <v>0.966021381</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:5">
       <c r="A505" t="n">
         <v>0.964957239</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:5">
       <c r="A506" t="n">
         <v>0.96994562</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:5">
       <c r="A507" t="n">
         <v>0.960909757</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:5">
       <c r="A508" t="n">
         <v>0.9565511920000001</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:5">
       <c r="A509" t="n">
         <v>0.93376817</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:5">
       <c r="A510" t="n">
         <v>0.93913903</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:5">
       <c r="A511" t="n">
         <v>0.912322126</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:5">
       <c r="A512" t="n">
         <v>0.903823434</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:5">
       <c r="A513" t="n">
         <v>0.894306497</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:5">
       <c r="A514" t="n">
         <v>0.918785177</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:5">
       <c r="A515" t="n">
         <v>0.954592047</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:5">
       <c r="A516" t="n">
         <v>0.956857175</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:5">
       <c r="A517" t="n">
         <v>0.970000867</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:5">
       <c r="A518" t="n">
         <v>0.97550262</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:5">
       <c r="A519" t="n">
         <v>0.976015993</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:5">
       <c r="A520" t="n">
         <v>0.978013385</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:5">
       <c r="A521" t="n">
         <v>0.976697656</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:5">
       <c r="A522" t="n">
         <v>0.972009309</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:5">
       <c r="A523" t="n">
         <v>0.958410042</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:5">
       <c r="A524" t="n">
         <v>0.959253196</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:5">
       <c r="A525" t="n">
         <v>0.931090814</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:5">
       <c r="A526" t="n">
         <v>0.92004056</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:5">
       <c r="A527" t="n">
         <v>0.938134385</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:5">
       <c r="A528" t="n">
         <v>0.965617653</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:5">
       <c r="A529" t="n">
         <v>0.951125934</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:5">
       <c r="A530" t="n">
         <v>0.942921327</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:5">
       <c r="A531" t="n">
         <v>0.940612851</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:5">
       <c r="A532" t="n">
         <v>0.924753556</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:5">
       <c r="A533" t="n">
         <v>0.915711743</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:5">
       <c r="A534" t="n">
         <v>0.931933969</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:5">
       <c r="A535" t="n">
         <v>0.932245052</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:5">
       <c r="A536" t="n">
         <v>0.935564123</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:5">
       <c r="A537" t="n">
         <v>0.957637433</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:5">
       <c r="A538" t="n">
         <v>0.945620781</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:5">
       <c r="A539" t="n">
         <v>0.946139253</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:5">
       <c r="A540" t="n">
         <v>0.921363938</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:5">
       <c r="A541" t="n">
         <v>0.904718436</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:5">
       <c r="A542" t="n">
         <v>0.923883203</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:5">
       <c r="A543" t="n">
         <v>0.902472857</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:5">
       <c r="A544" t="n">
         <v>0.9191396080000001</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:5">
       <c r="A545" t="n">
         <v>0.945093809</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:5">
       <c r="A546" t="n">
         <v>0.945656479</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:5">
       <c r="A547" t="n">
         <v>0.963663609</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:5">
       <c r="A548" t="n">
         <v>0.958513736</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:5">
       <c r="A549" t="n">
         <v>0.950432372</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:5">
       <c r="A550" t="n">
         <v>0.962293482</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:5">
       <c r="A551" t="n">
         <v>0.961730813</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:5">
       <c r="A552" t="n">
         <v>0.971100708</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:5">
       <c r="A553" t="n">
         <v>0.975092942</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:5">
       <c r="A554" t="n">
         <v>0.977492363</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:5">
       <c r="A555" t="n">
         <v>0.975985394</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:5">
       <c r="A556" t="n">
         <v>0.972238796</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:5">
       <c r="A557" t="n">
         <v>0.985385038</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:5">
       <c r="A558" t="n">
         <v>0.983379146</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:5">
       <c r="A559" t="n">
         <v>0.9912284730000001</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:5">
       <c r="A560" t="n">
         <v>0.992535702</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:5">
       <c r="A561" t="n">
         <v>0.9916729990000001</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:5">
       <c r="A562" t="n">
         <v>0.984727173</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:5">
       <c r="A563" t="n">
         <v>0.997980509</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:5">
       <c r="A564" t="n">
         <v>0.990733799</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:5">
       <c r="A565" t="n">
         <v>0.981684337</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:5">
       <c r="A566" t="n">
         <v>0.984983859</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:5">
       <c r="A567" t="n">
         <v>0.9612752369999999</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:5">
       <c r="A568" t="n">
         <v>0.973084501</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:5">
       <c r="A569" t="n">
         <v>0.944799725</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:5">
       <c r="A570" t="n">
         <v>0.942458102</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:5">
       <c r="A571" t="n">
         <v>0.964542461</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:5">
       <c r="A572" t="n">
         <v>0.95214078</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:5">
       <c r="A573" t="n">
         <v>0.971529085</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:5">
       <c r="A574" t="n">
         <v>0.960620773</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:5">
       <c r="A575" t="n">
         <v>0.979924082</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:5">
       <c r="A576" t="n">
         <v>0.969966019</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:5">
       <c r="A577" t="n">
         <v>0.984297946</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:5">
       <c r="A578" t="n">
         <v>0.98331115</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:5">
       <c r="A579" t="n">
         <v>0.97439513</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:5">
       <c r="A580" t="n">
         <v>0.949525471</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:5">
       <c r="A581" t="n">
         <v>0.9460993049999999</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:5">
       <c r="A582" t="n">
         <v>0.949025698</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:5">
       <c r="A583" t="n">
         <v>0.97143474</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:5">
       <c r="A584" t="n">
         <v>0.954419507</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:5">
       <c r="A585" t="n">
         <v>0.947794964</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:5">
       <c r="A586" t="n">
         <v>0.953324766</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:5">
       <c r="A587" t="n">
         <v>0.963321077</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:5">
       <c r="A588" t="n">
         <v>0.962859552</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:5">
       <c r="A589" t="n">
         <v>0.965162078</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:5">
       <c r="A590" t="n">
         <v>0.96994052</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:5">
       <c r="A591" t="n">
         <v>0.978348267</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:5">
       <c r="A592" t="n">
         <v>0.971496786</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:5">
       <c r="A593" t="n">
         <v>0.9765676129999999</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:5">
       <c r="A594" t="n">
         <v>0.983019615</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:5">
       <c r="A595" t="n">
         <v>0.982438247</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:5">
       <c r="A596" t="n">
         <v>0.958684577</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:5">
       <c r="A597" t="n">
         <v>0.976417171</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:5">
       <c r="A598" t="n">
         <v>0.969163662</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:5">
       <c r="A599" t="n">
         <v>0.976701056</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:5">
       <c r="A600" t="n">
         <v>0.978436662</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:5">
       <c r="A601" t="n">
         <v>0.980259814</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:5">
       <c r="A602" t="n">
         <v>0.976675557</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:5">
       <c r="A603" t="n">
         <v>0.982809677</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:5">
       <c r="A604" t="n">
         <v>0.976468168</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:5">
       <c r="A605" t="n">
         <v>0.959893212</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:5">
       <c r="A606" t="n">
         <v>0.9754932710000001</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:5">
       <c r="A607" t="n">
         <v>0.979431959</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:5">
       <c r="A608" t="n">
         <v>0.96734561</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:5">
       <c r="A609" t="n">
         <v>0.960017305</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:5">
       <c r="A610" t="n">
         <v>0.966993729</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:5">
       <c r="A611" t="n">
         <v>0.989691756</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:5">
       <c r="A612" t="n">
         <v>0.982387249</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:5">
       <c r="A613" t="n">
         <v>0.979247519</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:5">
       <c r="A614" t="n">
         <v>0.978589654</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:5">
       <c r="A615" t="n">
         <v>0.994887526</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:5">
       <c r="A616" t="n">
         <v>0.996614632</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:5">
       <c r="A617" t="n">
         <v>0.998851712</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:5">
       <c r="A618" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:5">
       <c r="A619" t="n">
         <v>0.9977059740000001</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:5">
       <c r="A620" t="n">
         <v>0.997734872</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:5">
       <c r="A621" t="n">
         <v>0.993168918</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:5">
       <c r="A622" t="n">
         <v>0.976978991</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:5">
       <c r="A623" t="n">
         <v>0.987301684</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:5">
       <c r="A624" t="n">
         <v>0.984167903</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:5">
       <c r="A625" t="n">
         <v>0.974356032</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:5">
       <c r="A626" t="n">
         <v>0.976879546</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:5">
       <c r="A627" t="n">
         <v>0.974463126</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:5">
       <c r="A628" t="n">
         <v>0.979930882</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:5">
       <c r="A629" t="n">
         <v>0.965423014</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:5">
       <c r="A630" t="n">
         <v>0.960653071</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:5">
       <c r="A631" t="n">
         <v>0.953606101</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:5">
       <c r="A632" t="n">
         <v>0.953392762</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:5">
       <c r="A633" t="n">
         <v>0.973482279</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:5">
       <c r="A634" t="n">
         <v>0.976794551</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:5">
       <c r="A635" t="n">
         <v>0.964850145</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:5">
       <c r="A636" t="n">
         <v>0.955698688</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:5">
       <c r="A637" t="n">
         <v>0.965329519</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:5">
       <c r="A638" t="n">
         <v>0.967986476</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:5">
       <c r="A639" t="n">
         <v>0.98329415</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:5">
       <c r="A640" t="n">
         <v>0.974803958</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:5">
       <c r="A641" t="n">
         <v>0.983629032</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:5">
       <c r="A642" t="n">
         <v>0.985693571</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:5">
       <c r="A643" t="n">
         <v>0.970564387</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:5">
       <c r="A644" t="n">
         <v>0.964129383</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:5">
       <c r="A645" t="n">
         <v>0.968916325</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:5">
       <c r="A646" t="n">
         <v>0.93913988</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:5">
       <c r="A647" t="n">
         <v>0.941108374</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:5">
       <c r="A648" t="n">
         <v>0.95287174</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:5">
       <c r="A649" t="n">
         <v>0.950508868</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:5">
       <c r="A650" t="n">
         <v>0.946554031</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:5">
       <c r="A651" t="n">
         <v>0.954486653</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:5">
       <c r="A652" t="n">
         <v>0.932261201</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:5">
       <c r="A653" t="n">
         <v>0.9350830490000001</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:5">
       <c r="A654" t="n">
         <v>0.953084229</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:5">
       <c r="A655" t="n">
         <v>0.971551183</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:5">
       <c r="A656" t="n">
         <v>0.978002336</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:5">
       <c r="A657" t="n">
         <v>0.977712501</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:5">
       <c r="A658" t="n">
         <v>0.98366898</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:5">
       <c r="A659" t="n">
         <v>0.980796135</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:5">
       <c r="A660" t="n">
         <v>0.981982671</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:5">
       <c r="A661" t="n">
         <v>0.966588301</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:5">
       <c r="A662" t="n">
         <v>0.960787364</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:5">
       <c r="A663" t="n">
         <v>0.9506627090000001</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:5">
       <c r="A664" t="n">
         <v>0.936775308</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:5">
       <c r="A665" t="n">
         <v>0.925900994</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:5">
       <c r="A666" t="n">
         <v>0.942022925</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:5">
       <c r="A667" t="n">
         <v>0.9523175699999999</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:5">
       <c r="A668" t="n">
         <v>0.951857745</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:5">
       <c r="A669" t="n">
         <v>0.947087802</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:5">
       <c r="A670" t="n">
         <v>0.939297122</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:5">
       <c r="A671" t="n">
         <v>0.93525899</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:5">
       <c r="A672" t="n">
         <v>0.934390336</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:5">
       <c r="A673" t="n">
         <v>0.924129689</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:5">
       <c r="A674" t="n">
         <v>0.920188452</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:5">
       <c r="A675" t="n">
         <v>0.940739494</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:5">
       <c r="A676" t="n">
         <v>0.922692417</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:5">
       <c r="A677" t="n">
         <v>0.922664368</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:5">
       <c r="A678" t="n">
         <v>0.923152242</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:5">
       <c r="A679" t="n">
         <v>0.929029675</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:5">
       <c r="A680" t="n">
         <v>0.934790665</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:5">
       <c r="A681" t="n">
         <v>0.93191442</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:5">
       <c r="A682" t="n">
         <v>0.918093315</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:5">
       <c r="A683" t="n">
         <v>0.887661555</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:5">
       <c r="A684" t="n">
         <v>0.842534087</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:5">
       <c r="A685" t="n">
         <v>0.792522783</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:5">
       <c r="A686" t="n">
         <v>0.775106372</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:5">
       <c r="A687" t="n">
         <v>0.827724486</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:5">
       <c r="A688" t="n">
         <v>0.859109894</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:5">
       <c r="A689" t="n">
         <v>0.858110348</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:5">
       <c r="A690" t="n">
         <v>0.848337575</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:5">
       <c r="A691" t="n">
         <v>0.808416926</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:5">
       <c r="A692" t="n">
         <v>0.833323134</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:5">
       <c r="A693" t="n">
         <v>0.835310327</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:5">
       <c r="A694" t="n">
         <v>0.812159275</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:5">
       <c r="A695" t="n">
         <v>0.845332987</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:5">
       <c r="A696" t="n">
         <v>0.8250097320000001</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:5">
       <c r="A697" t="n">
         <v>0.83153993</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:5">
       <c r="A698" t="n">
         <v>0.84026811</v>
       </c>
-    </row>
-    <row r="699" spans="1:7">
+      <c r="B698" t="n">
+        <v>0.9256848113631932</v>
+      </c>
+      <c r="C698" t="n">
+        <v>0.928346683</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0.9153820226319325</v>
+      </c>
+      <c r="E698" t="n">
+        <v>0.931482276</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
       <c r="A699" t="n">
         <v>0.834987344</v>
       </c>
-    </row>
-    <row r="700" spans="1:7">
+      <c r="B699" t="n">
+        <v>0.9085856031217405</v>
+      </c>
+      <c r="C699" t="n">
+        <v>0.9135834390000001</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0.8908756547174042</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.917595523</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
       <c r="A700" t="n">
         <v>0.854441946</v>
       </c>
-    </row>
-    <row r="701" spans="1:7">
+      <c r="B700" t="n">
+        <v>0.8745387375407718</v>
+      </c>
+      <c r="C700" t="n">
+        <v>0.883121524</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0.8458838314077181</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.887460539</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
       <c r="A701" t="n">
         <v>0.8663498039999999</v>
       </c>
-    </row>
-    <row r="702" spans="1:7">
+      <c r="B701" t="n">
+        <v>0.8173414901847886</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0.837514978</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0.7536557968478867</v>
+      </c>
+      <c r="E701" t="n">
+        <v>0.842343464</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
       <c r="A702" t="n">
         <v>0.860807252</v>
       </c>
-    </row>
-    <row r="703" spans="1:7">
+      <c r="B702" t="n">
+        <v>0.8083826490844969</v>
+      </c>
+      <c r="C702" t="n">
+        <v>0.824904331</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0.7776380423449682</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.8251696506550318</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
       <c r="A703" t="n">
         <v>0.836144982</v>
       </c>
-    </row>
-    <row r="704" spans="1:7">
+      <c r="B703" t="n">
+        <v>0.8058111244916975</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.824114931</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0.775765739</v>
+      </c>
+      <c r="E703" t="n">
+        <v>0.8243999605830266</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
       <c r="A704" t="n">
         <v>0.846821256</v>
       </c>
-    </row>
-    <row r="705" spans="1:7">
+      <c r="B704" t="n">
+        <v>0.8451895683260486</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.855290656</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0.827537273</v>
+      </c>
+      <c r="E704" t="n">
+        <v>0.8555527432395131</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
       <c r="A705" t="n">
         <v>0.83154588</v>
       </c>
-    </row>
-    <row r="706" spans="1:7">
+      <c r="B705" t="n">
+        <v>0.855287626267468</v>
+      </c>
+      <c r="C705" t="n">
+        <v>0.855572401</v>
+      </c>
+      <c r="D705" t="n">
+        <v>0.8525551581746799</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.858460833</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
       <c r="A706" t="n">
         <v>0.827246811</v>
       </c>
-    </row>
-    <row r="707" spans="1:7">
+      <c r="B706" t="n">
+        <v>0.8511800765917185</v>
+      </c>
+      <c r="C706" t="n">
+        <v>0.852312582</v>
+      </c>
+      <c r="D706" t="n">
+        <v>0.8448382049171852</v>
+      </c>
+      <c r="E706" t="n">
+        <v>0.856982253</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
       <c r="A707" t="n">
         <v>0.820568721</v>
       </c>
-    </row>
-    <row r="708" spans="1:7">
+      <c r="B707" t="n">
+        <v>0.8346697194198593</v>
+      </c>
+      <c r="C707" t="n">
+        <v>0.843380076</v>
+      </c>
+      <c r="D707" t="n">
+        <v>0.805567342698594</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.848145615</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
       <c r="A708" t="n">
         <v>0.830202952</v>
       </c>
-    </row>
-    <row r="709" spans="1:7">
+      <c r="B708" t="n">
+        <v>0.82129926019346</v>
+      </c>
+      <c r="C708" t="n">
+        <v>0.828309318</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0.808234159</v>
+      </c>
+      <c r="E708" t="n">
+        <v>0.8285153125653999</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
       <c r="A709" t="n">
         <v>0.803618085</v>
       </c>
-    </row>
-    <row r="710" spans="1:7">
+      <c r="B709" t="n">
+        <v>0.8408627791266629</v>
+      </c>
+      <c r="C709" t="n">
+        <v>0.845273262</v>
+      </c>
+      <c r="D709" t="n">
+        <v>0.8341281072666277</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.8454826447333723</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
       <c r="A710" t="n">
         <v>0.807633269</v>
       </c>
-    </row>
-    <row r="711" spans="1:7">
+      <c r="B710" t="n">
+        <v>0.8256066183498005</v>
+      </c>
+      <c r="C710" t="n">
+        <v>0.829956836</v>
+      </c>
+      <c r="D710" t="n">
+        <v>0.8094644929980042</v>
+      </c>
+      <c r="E710" t="n">
+        <v>0.834866439</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
       <c r="A711" t="n">
         <v>0.8276556390000001</v>
       </c>
-    </row>
-    <row r="712" spans="1:7">
+      <c r="B711" t="n">
+        <v>0.8308145104605545</v>
+      </c>
+      <c r="C711" t="n">
+        <v>0.841265274</v>
+      </c>
+      <c r="D711" t="n">
+        <v>0.812617214</v>
+      </c>
+      <c r="E711" t="n">
+        <v>0.8415546343944544</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
       <c r="A712" t="n">
         <v>0.826577047</v>
       </c>
-    </row>
-    <row r="713" spans="1:7">
+      <c r="B712" t="n">
+        <v>0.8464947064664319</v>
+      </c>
+      <c r="C712" t="n">
+        <v>0.855115425</v>
+      </c>
+      <c r="D712" t="n">
+        <v>0.8258147206643192</v>
+      </c>
+      <c r="E712" t="n">
+        <v>0.8554018803356809</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
       <c r="A713" t="n">
         <v>0.84360673</v>
       </c>
-    </row>
-    <row r="714" spans="1:7">
+      <c r="B713" t="n">
+        <v>0.831628220501304</v>
+      </c>
+      <c r="C713" t="n">
+        <v>0.83598514</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0.824738168</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.836275189486959</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
       <c r="A714" t="n">
         <v>0.869450437</v>
       </c>
-    </row>
-    <row r="715" spans="1:7">
+      <c r="B714" t="n">
+        <v>0.8329397792213683</v>
+      </c>
+      <c r="C714" t="n">
+        <v>0.835368394</v>
+      </c>
+      <c r="D714" t="n">
+        <v>0.8278878352136838</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.8356617827863162</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
       <c r="A715" t="n">
         <v>0.870619974</v>
       </c>
-    </row>
-    <row r="716" spans="1:7">
+      <c r="B715" t="n">
+        <v>0.8366276399444571</v>
+      </c>
+      <c r="C715" t="n">
+        <v>0.836751348</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0.8351170750001143</v>
+      </c>
+      <c r="E715" t="n">
+        <v>0.836751348</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
       <c r="A716" t="n">
         <v>0.880997914</v>
       </c>
-    </row>
-    <row r="717" spans="1:7">
+      <c r="B716" t="n">
+        <v>0.8473030833711883</v>
+      </c>
+      <c r="C716" t="n">
+        <v>0.853351086</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0.835785878</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.8537746427881174</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
       <c r="A717" t="n">
         <v>0.89276638</v>
       </c>
-    </row>
-    <row r="718" spans="1:7">
+      <c r="B717" t="n">
+        <v>0.8603030243508052</v>
+      </c>
+      <c r="C717" t="n">
+        <v>0.862960466</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0.854219688</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0.8634528929919487</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
       <c r="A718" t="n">
         <v>0.8956341249999999</v>
       </c>
-    </row>
-    <row r="719" spans="1:7">
+      <c r="B718" t="n">
+        <v>0.8721741273187101</v>
+      </c>
+      <c r="C718" t="n">
+        <v>0.878203019</v>
+      </c>
+      <c r="D718" t="n">
+        <v>0.8610227896871011</v>
+      </c>
+      <c r="E718" t="n">
+        <v>0.8788523513128988</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
       <c r="A719" t="n">
         <v>0.899660358</v>
       </c>
-    </row>
-    <row r="720" spans="1:7">
+      <c r="B719" t="n">
+        <v>0.8517426943465651</v>
+      </c>
+      <c r="C719" t="n">
+        <v>0.855982133</v>
+      </c>
+      <c r="D719" t="n">
+        <v>0.8357477354656505</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0.860612421</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
       <c r="A720" t="n">
         <v>0.895413137</v>
       </c>
-    </row>
-    <row r="721" spans="1:7">
+      <c r="B720" t="n">
+        <v>0.8443641911977646</v>
+      </c>
+      <c r="C720" t="n">
+        <v>0.847723925</v>
+      </c>
+      <c r="D720" t="n">
+        <v>0.83778451</v>
+      </c>
+      <c r="E720" t="n">
+        <v>0.8487412880223536</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
       <c r="A721" t="n">
         <v>0.882056957</v>
       </c>
-    </row>
-    <row r="722" spans="1:7">
+      <c r="B721" t="n">
+        <v>0.8364455081880651</v>
+      </c>
+      <c r="C721" t="n">
+        <v>0.839035368</v>
+      </c>
+      <c r="D721" t="n">
+        <v>0.8251126483806512</v>
+      </c>
+      <c r="E721" t="n">
+        <v>0.843847536</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
       <c r="A722" t="n">
         <v>0.900500963</v>
       </c>
-    </row>
-    <row r="723" spans="1:7">
+      <c r="B722" t="n">
+        <v>0.8280993549312298</v>
+      </c>
+      <c r="C722" t="n">
+        <v>0.828542101</v>
+      </c>
+      <c r="D722" t="n">
+        <v>0.8242862088122972</v>
+      </c>
+      <c r="E722" t="n">
+        <v>0.83155663</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
       <c r="A723" t="n">
         <v>0.9068093229999999</v>
       </c>
-    </row>
-    <row r="724" spans="1:7">
+      <c r="B723" t="n">
+        <v>0.8179292807027847</v>
+      </c>
+      <c r="C723" t="n">
+        <v>0.820108661</v>
+      </c>
+      <c r="D723" t="n">
+        <v>0.8076965645278472</v>
+      </c>
+      <c r="E723" t="n">
+        <v>0.825123959</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
       <c r="A724" t="n">
         <v>0.908047706</v>
       </c>
-    </row>
-    <row r="725" spans="1:7">
+      <c r="B724" t="n">
+        <v>0.8319851079020651</v>
+      </c>
+      <c r="C724" t="n">
+        <v>0.837985698</v>
+      </c>
+      <c r="D724" t="n">
+        <v>0.820701816</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0.8391708534793481</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
       <c r="A725" t="n">
         <v>0.906906218</v>
       </c>
-    </row>
-    <row r="726" spans="1:7">
+      <c r="B725" t="n">
+        <v>0.8208238297098743</v>
+      </c>
+      <c r="C725" t="n">
+        <v>0.824931819</v>
+      </c>
+      <c r="D725" t="n">
+        <v>0.8049319105987439</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0.829895352</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
       <c r="A726" t="n">
         <v>0.90278394</v>
       </c>
-    </row>
-    <row r="727" spans="1:7">
+      <c r="B726" t="n">
+        <v>0.8060258092506803</v>
+      </c>
+      <c r="C726" t="n">
+        <v>0.808235875</v>
+      </c>
+      <c r="D726" t="n">
+        <v>0.8018498685068033</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0.8089559464931968</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
       <c r="A727" t="n">
         <v>0.930029221</v>
       </c>
-    </row>
-    <row r="728" spans="1:7">
+      <c r="B727" t="n">
+        <v>0.8183889307810757</v>
+      </c>
+      <c r="C727" t="n">
+        <v>0.82358666</v>
+      </c>
+      <c r="D727" t="n">
+        <v>0.80812624</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0.824129114689244</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
       <c r="A728" t="n">
         <v>0.9434194</v>
       </c>
-    </row>
-    <row r="729" spans="1:7">
+      <c r="B728" t="n">
+        <v>0.8242243540175422</v>
+      </c>
+      <c r="C728" t="n">
+        <v>0.827990637</v>
+      </c>
+      <c r="D728" t="n">
+        <v>0.8133110741754233</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0.8283868698245768</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
       <c r="A729" t="n">
         <v>0.941409258</v>
       </c>
-    </row>
-    <row r="730" spans="1:7">
+      <c r="B729" t="n">
+        <v>0.8290789367395398</v>
+      </c>
+      <c r="C729" t="n">
+        <v>0.838633367</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0.8082427253953975</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0.8390007706046024</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
       <c r="A730" t="n">
         <v>0.937871749</v>
       </c>
-    </row>
-    <row r="731" spans="1:7">
+      <c r="B730" t="n">
+        <v>0.8593102782754427</v>
+      </c>
+      <c r="C730" t="n">
+        <v>0.866601671</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0.845942191</v>
+      </c>
+      <c r="E730" t="n">
+        <v>0.8670076907455726</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
       <c r="A731" t="n">
         <v>0.954708491</v>
       </c>
-    </row>
-    <row r="732" spans="1:7">
+      <c r="B731" t="n">
+        <v>0.8713834106399627</v>
+      </c>
+      <c r="C731" t="n">
+        <v>0.872332768</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0.869048823</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.8727226516003723</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
       <c r="A732" t="n">
         <v>0.9526924</v>
       </c>
-    </row>
-    <row r="733" spans="1:7">
+      <c r="B732" t="n">
+        <v>0.8772400878879983</v>
+      </c>
+      <c r="C732" t="n">
+        <v>0.880768785</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0.871717064</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0.881228537120017</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
       <c r="A733" t="n">
         <v>0.9448507229999999</v>
       </c>
-    </row>
-    <row r="734" spans="1:7">
+      <c r="B733" t="n">
+        <v>0.8865715915002083</v>
+      </c>
+      <c r="C733" t="n">
+        <v>0.890903</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0.8797421545020827</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0.8914229234979173</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
       <c r="A734" t="n">
         <v>0.958893666</v>
       </c>
-    </row>
-    <row r="735" spans="1:7">
+      <c r="B734" t="n">
+        <v>0.8936333035263158</v>
+      </c>
+      <c r="C734" t="n">
+        <v>0.893445573</v>
+      </c>
+      <c r="D734" t="n">
+        <v>0.892898993</v>
+      </c>
+      <c r="E734" t="n">
+        <v>0.8944868969999999</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
       <c r="A735" t="n">
         <v>0.9664914060000001</v>
       </c>
-    </row>
-    <row r="736" spans="1:7">
+      <c r="B735" t="n">
+        <v>0.8961686404549928</v>
+      </c>
+      <c r="C735" t="n">
+        <v>0.895879056</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0.8947129520998579</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0.897651452</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
       <c r="A736" t="n">
         <v>0.962193188</v>
       </c>
-    </row>
-    <row r="737" spans="1:7">
+      <c r="B736" t="n">
+        <v>0.8976566446765325</v>
+      </c>
+      <c r="C736" t="n">
+        <v>0.89876522</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0.8944761797653251</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0.8993876662346749</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5">
       <c r="A737" t="n">
         <v>0.961840457</v>
       </c>
-    </row>
-    <row r="738" spans="1:7">
+      <c r="B737" t="n">
+        <v>0.8909525761052413</v>
+      </c>
+      <c r="C737" t="n">
+        <v>0.893488522</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0.8821437070524124</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0.8949715539999999</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
       <c r="A738" t="n">
         <v>0.965826742</v>
       </c>
-    </row>
-    <row r="739" spans="1:7">
+      <c r="B738" t="n">
+        <v>0.8919212375048332</v>
+      </c>
+      <c r="C738" t="n">
+        <v>0.896326583</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0.883566096</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0.8968012599516678</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
       <c r="A739" t="n">
         <v>0.950540316</v>
       </c>
-    </row>
-    <row r="740" spans="1:7">
+      <c r="B739" t="n">
+        <v>0.9020114995846532</v>
+      </c>
+      <c r="C739" t="n">
+        <v>0.9028204520000001</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0.900296991</v>
+      </c>
+      <c r="E739" t="n">
+        <v>0.9032617196534685</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
       <c r="A740" t="n">
         <v>0.952897239</v>
       </c>
-    </row>
-    <row r="741" spans="1:7">
+      <c r="B740" t="n">
+        <v>0.9041660968229956</v>
+      </c>
+      <c r="C740" t="n">
+        <v>0.904188803</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0.9027674187299564</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0.906048156</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
       <c r="A741" t="n">
         <v>0.948138345</v>
       </c>
-    </row>
-    <row r="742" spans="1:7">
+      <c r="B741" t="n">
+        <v>0.9063084396602228</v>
+      </c>
+      <c r="C741" t="n">
+        <v>0.906673825</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0.9044645031022288</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0.907666096</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5">
       <c r="A742" t="n">
         <v>0.92653676</v>
       </c>
-    </row>
-    <row r="743" spans="1:7">
+      <c r="B742" t="n">
+        <v>0.9089823428210574</v>
+      </c>
+      <c r="C742" t="n">
+        <v>0.91097816</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0.9050480392105731</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0.9110841497894269</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
       <c r="A743" t="n">
         <v>0.909297139</v>
       </c>
-    </row>
-    <row r="744" spans="1:7">
+      <c r="B743" t="n">
+        <v>0.9187969733304151</v>
+      </c>
+      <c r="C743" t="n">
+        <v>0.927315051</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0.903622095</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0.9274317761958492</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
       <c r="A744" t="n">
         <v>0.9295065</v>
       </c>
-    </row>
-    <row r="745" spans="1:7">
+      <c r="B744" t="n">
+        <v>0.9394427772728531</v>
+      </c>
+      <c r="C744" t="n">
+        <v>0.942277579</v>
+      </c>
+      <c r="D744" t="n">
+        <v>0.932873331</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0.9425022442714699</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
       <c r="A745" t="n">
         <v>0.93005812</v>
       </c>
-    </row>
-    <row r="746" spans="1:7">
+      <c r="B745" t="n">
+        <v>0.9417043551510466</v>
+      </c>
+      <c r="C745" t="n">
+        <v>0.940673868</v>
+      </c>
+      <c r="D745" t="n">
+        <v>0.94018298502093</v>
+      </c>
+      <c r="E745" t="n">
+        <v>0.943449425</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
       <c r="A746" t="n">
         <v>0.951108085</v>
       </c>
-    </row>
-    <row r="747" spans="1:7">
+      <c r="B746" t="n">
+        <v>0.9383976180190781</v>
+      </c>
+      <c r="C746" t="n">
+        <v>0.938481757</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0.9377207161717028</v>
+      </c>
+      <c r="E746" t="n">
+        <v>0.938481757</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
       <c r="A747" t="n">
         <v>0.9507332550000001</v>
       </c>
-    </row>
-    <row r="748" spans="1:7">
+      <c r="B747" t="n">
+        <v>0.9460775294960845</v>
+      </c>
+      <c r="C747" t="n">
+        <v>0.950917173</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0.9381061429999999</v>
+      </c>
+      <c r="E747" t="n">
+        <v>0.9511745330391548</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
       <c r="A748" t="n">
         <v>0.958472938</v>
       </c>
-    </row>
-    <row r="749" spans="1:7">
+      <c r="B748" t="n">
+        <v>0.9511950379842937</v>
+      </c>
+      <c r="C748" t="n">
+        <v>0.951436854</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0.9499378528586432</v>
+      </c>
+      <c r="E748" t="n">
+        <v>0.951436854</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
       <c r="A749" t="n">
         <v>0.955827031</v>
       </c>
-    </row>
-    <row r="750" spans="1:7">
+      <c r="B749" t="n">
+        <v>0.9515226077512524</v>
+      </c>
+      <c r="C749" t="n">
+        <v>0.952635987</v>
+      </c>
+      <c r="D749" t="n">
+        <v>0.9480793990125246</v>
+      </c>
+      <c r="E749" t="n">
+        <v>0.9528993699874754</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
       <c r="A750" t="n">
         <v>0.957485292</v>
       </c>
-    </row>
-    <row r="751" spans="1:7">
+      <c r="B750" t="n">
+        <v>0.9526539555533666</v>
+      </c>
+      <c r="C750" t="n">
+        <v>0.9565821289999999</v>
+      </c>
+      <c r="D750" t="n">
+        <v>0.945408118</v>
+      </c>
+      <c r="E750" t="n">
+        <v>0.9568417119663335</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
       <c r="A751" t="n">
         <v>0.957587286</v>
       </c>
-    </row>
-    <row r="752" spans="1:7">
+      <c r="B751" t="n">
+        <v>0.9643180742072314</v>
+      </c>
+      <c r="C751" t="n">
+        <v>0.967916336</v>
+      </c>
+      <c r="D751" t="n">
+        <v>0.9579097640000001</v>
+      </c>
+      <c r="E751" t="n">
+        <v>0.9681587184276869</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
       <c r="A752" t="n">
         <v>0.956320854</v>
       </c>
-    </row>
-    <row r="753" spans="1:7">
+      <c r="B752" t="n">
+        <v>0.9657062625916641</v>
+      </c>
+      <c r="C752" t="n">
+        <v>0.96673696</v>
+      </c>
+      <c r="D752" t="n">
+        <v>0.962169482416641</v>
+      </c>
+      <c r="E752" t="n">
+        <v>0.9672435109999999</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
       <c r="A753" t="n">
         <v>0.949642764</v>
       </c>
-    </row>
-    <row r="754" spans="1:7">
+      <c r="B753" t="n">
+        <v>0.9621284500070381</v>
+      </c>
+      <c r="C753" t="n">
+        <v>0.963764039</v>
+      </c>
+      <c r="D753" t="n">
+        <v>0.9579726175703811</v>
+      </c>
+      <c r="E753" t="n">
+        <v>0.9639896504296188</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
       <c r="A754" t="n">
         <v>0.9639585429999999</v>
       </c>
-    </row>
-    <row r="755" spans="1:7">
+      <c r="B754" t="n">
+        <v>0.9608019303264401</v>
+      </c>
+      <c r="C754" t="n">
+        <v>0.962263405</v>
+      </c>
+      <c r="D754" t="n">
+        <v>0.9571003577644006</v>
+      </c>
+      <c r="E754" t="n">
+        <v>0.9624640172355994</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
       <c r="A755" t="n">
         <v>0.95047232</v>
       </c>
-    </row>
-    <row r="756" spans="1:7">
+      <c r="B755" t="n">
+        <v>0.9586647834143218</v>
+      </c>
+      <c r="C755" t="n">
+        <v>0.961296197</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0.9485381551432172</v>
+      </c>
+      <c r="E755" t="n">
+        <v>0.964796207</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
       <c r="A756" t="n">
         <v>0.929052624</v>
       </c>
-    </row>
-    <row r="757" spans="1:7">
+      <c r="B756" t="n">
+        <v>0.9493909324121532</v>
+      </c>
+      <c r="C756" t="n">
+        <v>0.949947388</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0.9476875031215316</v>
+      </c>
+      <c r="E756" t="n">
+        <v>0.9501663228784684</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
       <c r="A757" t="n">
         <v>0.960497529</v>
       </c>
-    </row>
-    <row r="758" spans="1:7">
+      <c r="B757" t="n">
+        <v>0.9527828074447363</v>
+      </c>
+      <c r="C757" t="n">
+        <v>0.953256169</v>
+      </c>
+      <c r="D757" t="n">
+        <v>0.9509898584473629</v>
+      </c>
+      <c r="E757" t="n">
+        <v>0.953640578</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
       <c r="A758" t="n">
         <v>0.950542866</v>
       </c>
-    </row>
-    <row r="759" spans="1:7">
+      <c r="B758" t="n">
+        <v>0.9404877891735544</v>
+      </c>
+      <c r="C758" t="n">
+        <v>0.943356454</v>
+      </c>
+      <c r="D758" t="n">
+        <v>0.9295313437355434</v>
+      </c>
+      <c r="E758" t="n">
+        <v>0.947049001</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
       <c r="A759" t="n">
         <v>0.93673026</v>
       </c>
-    </row>
-    <row r="760" spans="1:7">
+      <c r="B759" t="n">
+        <v>0.9199205849502716</v>
+      </c>
+      <c r="C759" t="n">
+        <v>0.921651814</v>
+      </c>
+      <c r="D759" t="n">
+        <v>0.9122986795027159</v>
+      </c>
+      <c r="E759" t="n">
+        <v>0.925577305</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
       <c r="A760" t="n">
         <v>0.930296107</v>
       </c>
-    </row>
-    <row r="761" spans="1:7">
+      <c r="B760" t="n">
+        <v>0.9189067962553865</v>
+      </c>
+      <c r="C760" t="n">
+        <v>0.9254106989999999</v>
+      </c>
+      <c r="D760" t="n">
+        <v>0.90779101</v>
+      </c>
+      <c r="E760" t="n">
+        <v>0.9255156654461342</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
       <c r="A761" t="n">
         <v>0.937303979</v>
       </c>
-    </row>
-    <row r="762" spans="1:7">
+      <c r="B761" t="n">
+        <v>0.9332826717777088</v>
+      </c>
+      <c r="C761" t="n">
+        <v>0.935402324</v>
+      </c>
+      <c r="D761" t="n">
+        <v>0.929634052</v>
+      </c>
+      <c r="E761" t="n">
+        <v>0.9355066432229127</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
       <c r="A762" t="n">
         <v>0.910994497</v>
       </c>
-    </row>
-    <row r="763" spans="1:7">
+      <c r="B762" t="n">
+        <v>0.9418609882184672</v>
+      </c>
+      <c r="C762" t="n">
+        <v>0.948530075</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0.929506588</v>
+      </c>
+      <c r="E762" t="n">
+        <v>0.9486452823153271</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
       <c r="A763" t="n">
         <v>0.919773674</v>
       </c>
-    </row>
-    <row r="764" spans="1:7">
+      <c r="B763" t="n">
+        <v>0.9502402570085261</v>
+      </c>
+      <c r="C763" t="n">
+        <v>0.950317607</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0.9497541265767346</v>
+      </c>
+      <c r="E763" t="n">
+        <v>0.950317607</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
       <c r="A764" t="n">
         <v>0.933067808</v>
       </c>
-    </row>
-    <row r="765" spans="1:7">
+      <c r="B764" t="n">
+        <v>0.9585959318654529</v>
+      </c>
+      <c r="C764" t="n">
+        <v>0.96246097</v>
+      </c>
+      <c r="D764" t="n">
+        <v>0.950517715</v>
+      </c>
+      <c r="E764" t="n">
+        <v>0.9627028088454712</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
       <c r="A765" t="n">
         <v>0.952122081</v>
       </c>
-    </row>
-    <row r="766" spans="1:7">
+      <c r="B765" t="n">
+        <v>0.9577730726451061</v>
+      </c>
+      <c r="C765" t="n">
+        <v>0.958495931</v>
+      </c>
+      <c r="D765" t="n">
+        <v>0.9556151889510619</v>
+      </c>
+      <c r="E765" t="n">
+        <v>0.958735422048938</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
       <c r="A766" t="n">
         <v>0.930596991</v>
       </c>
-    </row>
-    <row r="767" spans="1:7">
+      <c r="B766" t="n">
+        <v>0.9553737050262214</v>
+      </c>
+      <c r="C766" t="n">
+        <v>0.958016621</v>
+      </c>
+      <c r="D766" t="n">
+        <v>0.9498606862622149</v>
+      </c>
+      <c r="E766" t="n">
+        <v>0.958247482737785</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
       <c r="A767" t="n">
         <v>0.8993790230000001</v>
       </c>
-    </row>
-    <row r="768" spans="1:7">
+      <c r="B767" t="n">
+        <v>0.9581211614980191</v>
+      </c>
+      <c r="C767" t="n">
+        <v>0.957356927</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0.9569127239603821</v>
+      </c>
+      <c r="E767" t="n">
+        <v>0.960116449</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
       <c r="A768" t="n">
         <v>0.90983941</v>
       </c>
-    </row>
-    <row r="769" spans="1:7">
+      <c r="B768" t="n">
+        <v>0.9554132616002694</v>
+      </c>
+      <c r="C768" t="n">
+        <v>0.955247278</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0.9546358908048492</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0.955667433</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
       <c r="A769" t="n">
         <v>0.923918901</v>
       </c>
-    </row>
-    <row r="770" spans="1:7">
+      <c r="B769" t="n">
+        <v>0.9552316673182151</v>
+      </c>
+      <c r="C769" t="n">
+        <v>0.955838255</v>
+      </c>
+      <c r="D769" t="n">
+        <v>0.9528284691821519</v>
+      </c>
+      <c r="E769" t="n">
+        <v>0.956473672</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
       <c r="A770" t="n">
         <v>0.939671952</v>
       </c>
-    </row>
-    <row r="771" spans="1:7">
+      <c r="B770" t="n">
+        <v>0.9571792006905231</v>
+      </c>
+      <c r="C770" t="n">
+        <v>0.960842657</v>
+      </c>
+      <c r="D770" t="n">
+        <v>0.9494104799999999</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0.9611210945947705</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
       <c r="A771" t="n">
         <v>0.9353847830000001</v>
       </c>
-    </row>
-    <row r="772" spans="1:7">
+      <c r="B771" t="n">
+        <v>0.9593335409420787</v>
+      </c>
+      <c r="C771" t="n">
+        <v>0.961364915</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0.9519248829207874</v>
+      </c>
+      <c r="E771" t="n">
+        <v>0.963297233</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
       <c r="A772" t="n">
         <v>0.933353392</v>
       </c>
-    </row>
-    <row r="773" spans="1:7">
+      <c r="B772" t="n">
+        <v>0.9453064726954477</v>
+      </c>
+      <c r="C772" t="n">
+        <v>0.950972148</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0.9279767179544769</v>
+      </c>
+      <c r="E772" t="n">
+        <v>0.951267202</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5">
       <c r="A773" t="n">
         <v>0.949732859</v>
       </c>
-    </row>
-    <row r="774" spans="1:7">
+      <c r="B773" t="n">
+        <v>0.9476485712030941</v>
+      </c>
+      <c r="C773" t="n">
+        <v>0.958349045</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0.929267806</v>
+      </c>
+      <c r="E773" t="n">
+        <v>0.9585488619690579</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
       <c r="A774" t="n">
         <v>0.939779046</v>
       </c>
-    </row>
-    <row r="775" spans="1:7">
+      <c r="B774" t="n">
+        <v>0.9545084540430162</v>
+      </c>
+      <c r="C774" t="n">
+        <v>0.956546911</v>
+      </c>
+      <c r="D774" t="n">
+        <v>0.9461439414301621</v>
+      </c>
+      <c r="E774" t="n">
+        <v>0.960097892</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
       <c r="A775" t="n">
         <v>0.924578465</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0.9421527460874056</v>
+      </c>
+      <c r="C775" t="n">
+        <v>0.944392381</v>
+      </c>
+      <c r="D775" t="n">
+        <v>0.9331043148740571</v>
+      </c>
+      <c r="E775" t="n">
+        <v>0.94807381</v>
       </c>
     </row>
   </sheetData>
